--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322B508F-E17A-4A48-9289-910CFD3EF721}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8389A4-0E6D-4349-98AC-5D68B14BA95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28035" yWindow="3495" windowWidth="32070" windowHeight="12795" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -43,28 +43,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿠폰은 설정에서 사용 가능합니다.</t>
+    <t>팁1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>짧은 엄지손톱은 컨트롤에 도움이 됩니다!
-멍청한 자동사냥AI보다 당신이 똑똑합니다!</t>
+    <t>팁2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시는 힘들 6명의 악마들에게 나눠줬습니다.
-(강제로..)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥을 켜놓고 잘때는 절전모드를 사용해서
-핸드폰의 수명을 지켜주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불법 프로그램 적발 시 경고 없이
-계정이 영구정지 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>팁3</t>
+  </si>
+  <si>
+    <t>팁4</t>
+  </si>
+  <si>
+    <t>팁5</t>
   </si>
 </sst>
 </file>
@@ -433,13 +426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="82.625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,44 +445,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8389A4-0E6D-4349-98AC-5D68B14BA95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CCA515-6288-4DE3-A09D-9EBF4E2E5575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -43,21 +43,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팁1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팁3</t>
-  </si>
-  <si>
-    <t>팁4</t>
-  </si>
-  <si>
-    <t>팁5</t>
+    <t>강해질수 있는 방법은 다양합니다! 여러가지 능력치를 올려보세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술을 최대한 많이 사용하는것이 유리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스가 잡기 힘들다면, 다른 조합을 사용해보세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동사냥 중에도 이동 방향키를 이용해 원하는 곳으로 이동할수 있습니다!
+스킬은 자동으로 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동사냥중 사용할 기술을 껏다 켰다 할수 있습니다.
+(화면 오른쪽 하단 기술 아이콘 클릭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,7 +432,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -477,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CCA515-6288-4DE3-A09D-9EBF4E2E5575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368FD3BC-EAA4-4B7A-8CC4-C12037A80665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>기술을 최대한 많이 사용하는것이 유리합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스가 잡기 힘들다면, 다른 조합을 사용해보세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,8 +56,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동사냥중 사용할 기술을 껏다 켰다 할수 있습니다.
-(화면 오른쪽 하단 기술 아이콘 클릭)</t>
+    <t>보스가 잡기 힘들다면, 다른 기술 조합을 사용해보세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 많이 죽는다면.. 체력 관련된 능력치를 올려보세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호연을 길러준 구미호는 아주 예쁜 구미호 였습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -479,15 +482,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368FD3BC-EAA4-4B7A-8CC4-C12037A80665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FA8C93-15FD-4279-9FEE-B1D9E00D68F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>너무 많이 죽는다면.. 체력 관련된 능력치를 올려보세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호연을 길러준 구미호는 아주 예쁜 구미호 였습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,14 +489,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FA8C93-15FD-4279-9FEE-B1D9E00D68F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A992A8E1-1C10-4B88-A588-AEEE324F7B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강해질수 있는 방법은 다양합니다! 여러가지 능력치를 올려보세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,11 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스가 잡기 힘들다면, 다른 기술 조합을 사용해보세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너무 많이 죽는다면.. 체력 관련된 능력치를 올려보세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 종료 하여도 휴식 경험치가 적용 됩니다!(최대 10시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="82.625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="82.58203125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -457,36 +453,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A992A8E1-1C10-4B88-A588-AEEE324F7B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B373A719-47EA-49FB-B243-E301639DBAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,7 +56,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임을 종료 하여도 휴식 경험치가 적용 됩니다!(최대 10시간)</t>
+    <t>오후 8시~10시에는 핫타임이 진행 됩니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 종료 하여도 휴식 경험치가 적용 됩니다!(최대 12시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,20 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="82.58203125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="82.625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -453,15 +457,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -469,12 +473,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B373A719-47EA-49FB-B243-E301639DBAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0F01B-A0E2-4D04-A82B-3218B9A3C390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="600" yWindow="2250" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임을 종료 하여도 휴식 경험치가 적용 됩니다!(최대 12시간)</t>
+    <t>게임을 종료 해도 휴식 경험치가 적용 됩니다!(최대 12시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0F01B-A0E2-4D04-A82B-3218B9A3C390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EC2E8D-1BB2-472A-8D14-DC6BE6476E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2250" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -56,11 +56,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오후 8시~10시에는 핫타임이 진행 됩니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임을 종료 해도 휴식 경험치가 적용 됩니다!(최대 12시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 시간에 핫타임이 진행 됩니다! (평일 19~22 / 주말 18~22)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EC2E8D-1BB2-472A-8D14-DC6BE6476E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B22E10-72B3-49B5-ABFB-DA13E2FA18FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="720" yWindow="3510" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술을 최대한 많이 사용하는것이 유리합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -52,15 +48,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너무 많이 죽는다면.. 체력 관련된 능력치를 올려보세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임을 종료 해도 휴식 경험치가 적용 됩니다!(최대 12시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특정 시간에 핫타임이 진행 됩니다! (평일 19~22 / 주말 18~22)</t>
+    <t>매일 핫타임이 진행 됩니다! (20시~22시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 많이 죽는다면. 체력 관련된 능력치를 올려보세요!(뿌리식물도..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아는 부처님 손바닥 컨텐츠에서 사용 가능합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼열쇠는 영혼의숲 컨텐츠에서 사용 가능 합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴 불꽃은 대장간 컨텐츠에서 사용 가능 합니다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -454,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -470,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +494,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B22E10-72B3-49B5-ABFB-DA13E2FA18FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0FCC99-AD64-4ED2-9030-1F600AD95B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="3510" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매일 핫타임이 진행 됩니다! (20시~22시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너무 많이 죽는다면. 체력 관련된 능력치를 올려보세요!(뿌리식물도..)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +65,10 @@
   </si>
   <si>
     <t>요괴 불꽃은 대장간 컨텐츠에서 사용 가능 합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 핫타임이 진행 됩니다! (20시~22시) 주말은 더 강화됩니다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0FCC99-AD64-4ED2-9030-1F600AD95B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99BAD1-45C9-4E87-87D3-22EC72EDFE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9480" yWindow="720" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임을 종료 해도 휴식 경험치가 적용 됩니다!(최대 12시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너무 많이 죽는다면. 체력 관련된 능력치를 올려보세요!(뿌리식물도..)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +65,10 @@
   </si>
   <si>
     <t>매일 핫타임이 진행 됩니다! (20시~22시) 주말은 더 강화됩니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 종료 해도 휴식 경험치가 적용 됩니다!(최대 24시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/LoadingTip.xlsx
+++ b/Assets/06.Table/LoadingTip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99BAD1-45C9-4E87-87D3-22EC72EDFE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02910BA5-2188-4A58-9345-19F5E0072E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="720" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTip" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동사냥 중에도 이동 방향키를 이용해 원하는 곳으로 이동할수 있습니다!
-스킬은 자동으로 사용합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너무 많이 죽는다면. 체력 관련된 능력치를 올려보세요!(뿌리식물도..)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +64,10 @@
   </si>
   <si>
     <t>게임을 종료 해도 휴식 경험치가 적용 됩니다!(최대 24시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 비율이 이상하다면 설정 -&gt; UI비율 옵션을 조절해 보세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,15 +469,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
